--- a/Question_Set2/Role-specific skills/Customer Success Representative (SaaS).xlsx
+++ b/Question_Set2/Role-specific skills/Customer Success Representative (SaaS).xlsx
@@ -16,23 +16,58 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'Which of the following should prompt proactive outreach to prevent possible customer churn?', 'ques_type': 2, 'options': ['The customer unsubscribes from the newsletter.', 'The customer sends in their second support ticket.', 'The customer has not left a review for your product on a public site.', 'The customer’s net promoter score (NPS) gets lower over time'], 'score': 'The customer’s net promoter score (NPS) gets lower over time'}, {'title': 'Which of the following is an example of a statement using empathetic language?', 'ques_type': 2, 'options': [' “I’m sorry you feel that way.”', '“If you had done it this way, it would have worked as expected.”', '“What is the most confusing part to you?”', '“If this were happening to me, I would feel frustrated, too.”'], 'score': '“If this were happening to me, I would feel frustrated, too.”'}, {'title': 'True or false: It’s important to consider and weigh all customer feedback equally.', 'ques_type': 11, 'options': ['true', 'false'], 'score': 'False'}, {'title': 'What is the most compelling reason for customers not to cancel their subscription with your product?', 'ques_type': 2, 'options': ['Constant releases of new features', 'Fast and thorough replies to support tickets', 'Solving a pain point', 'Excellent reviews from other customers'], 'score': 'Solving a pain point'}]</t>
+    <t>questions = [
+    {
+        "title": "Which of the following should prompt proactive outreach to prevent possible customer churn?",
+        "ques_type": 2,
+        "options": [
+            "The customer unsubscribes from the newsletter.",
+            "The customer sends in their second support ticket.",
+            "The customer has not left a review for your product on a public site.",
+            "The customer\u2019s net promoter score (NPS) gets lower over time"
+        ],
+        "score": "The customer\u2019s net promoter score (NPS) gets lower over time"
+    },
+    {
+        "title": "Which of the following is an example of a statement using empathetic language?",
+        "ques_type": 2,
+        "options": [
+            " \u201cI\u2019m sorry you feel that way.\u201d",
+            "\u201cIf you had done it this way, it would have worked as expected.\u201d",
+            "\u201cWhat is the most confusing part to you?\u201d",
+            "\u201cIf this were happening to me, I would feel frustrated, too.\u201d"
+        ],
+        "score": "\u201cIf this were happening to me, I would feel frustrated, too.\u201d"
+    },
+    {
+        "title": "True or false: It\u2019s important to consider and weigh all customer feedback equally.",
+        "ques_type": 11,
+        "options": [
+            "true",
+            "false"
+        ],
+        "score": "False"
+    },
+    {
+        "title": "What is the most compelling reason for customers not to cancel their subscription with your product?",
+        "ques_type": 2,
+        "options": [
+            "Constant releases of new features",
+            "Fast and thorough replies to support tickets",
+            "Solving a pain point",
+            "Excellent reviews from other customers"
+        ],
+        "score": "Solving a pain point"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +91,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +391,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
